--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/123/word_level_predictions_123.xlsx
@@ -3414,366 +3414,366 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>5</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>5</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>5</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>5</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>3</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>5</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" t="n">
         <v>4</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>5</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>5</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>5</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>6</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9966,366 +9966,366 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>15</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>5</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" s="2" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>15</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>6</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>15</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>7</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>15</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>8</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>15</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" t="n">
         <v>9</v>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>15</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" t="n">
         <v>10</v>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>15</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>11</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
+      <c r="F260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Missed_I-Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>8</v>
-      </c>
-      <c r="E268" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>9</v>
-      </c>
-      <c r="E269" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>10</v>
-      </c>
-      <c r="E270" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B272" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>11</v>
-      </c>
-      <c r="E271" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="F272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
+      <c r="G272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>12</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K272" t="b">
-        <v>1</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>20</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17269,237 +17269,237 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>26</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>8</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>26</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>9</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>26</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>10</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K327" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>26</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>firmware</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>11</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G324" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" t="b">
-        <v>1</v>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K324" t="b">
-        <v>1</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B325" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C325" s="2" t="inlineStr">
-        <is>
-          <t>Settings</t>
-        </is>
-      </c>
-      <c r="D325" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B326" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C326" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D326" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B327" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C327" s="2" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
-      <c r="D327" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L327" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B328" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C328" s="2" t="inlineStr">
-        <is>
-          <t>firmware</t>
-        </is>
-      </c>
-      <c r="D328" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E328" s="2" t="inlineStr">
+      <c r="F328" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L328" s="2" t="inlineStr">
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K328" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G462" t="b">
@@ -24469,57 +24469,57 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="n">
+      <c r="A463" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B463" t="inlineStr">
+      <c r="B463" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
+      <c r="C463" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D463" t="n">
+      <c r="D463" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E463" t="inlineStr">
+      <c r="E463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" t="inlineStr">
+      <c r="F463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G463" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" t="b">
-        <v>1</v>
-      </c>
-      <c r="J463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K463" t="b">
-        <v>1</v>
-      </c>
-      <c r="L463" t="inlineStr">
+      <c r="G463" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J463" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L463" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25017,7 +25017,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G473" t="b">
@@ -25041,57 +25041,57 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
+      <c r="F474" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/123/word_level_predictions_123.xlsx
@@ -3414,366 +3414,366 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
+      <c r="D58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="inlineStr">
+      <c r="D59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>4</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>5</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9966,366 +9966,366 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F184" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>20</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>20</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>20</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
+      <c r="F262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>20</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
+      <c r="F263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>20</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>4</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
+      <c r="F264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>20</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>5</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>20</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
+      <c r="F266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>20</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>7</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
-        <is>
-          <t>Missed_I-Event</t>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>20</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>8</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>20</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>9</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" s="2" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>20</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" s="2" t="inlineStr">
+      <c r="F270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>20</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>11</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" t="n">
         <v>20</v>
       </c>
-      <c r="B272" s="2" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
+      <c r="D272" t="n">
         <v>12</v>
       </c>
-      <c r="E272" s="2" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" s="2" t="inlineStr">
+      <c r="F272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2" t="inlineStr">
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>20</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>13</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17269,7 +17269,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G324" t="b">
@@ -17293,213 +17293,213 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" t="b">
-        <v>1</v>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K327" t="b">
-        <v>1</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="E327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="E328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
+      <c r="F328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G328" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" t="b">
-        <v>1</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K328" t="b">
-        <v>1</v>
-      </c>
-      <c r="L328" t="inlineStr">
+      <c r="G328" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24445,81 +24445,81 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>38</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>2</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B463" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C463" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D463" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E463" s="2" t="inlineStr">
+      <c r="F463" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G463" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J463" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L463" s="2" t="inlineStr">
+      <c r="G463" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" t="b">
+        <v>1</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K463" t="b">
+        <v>1</v>
+      </c>
+      <c r="L463" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25017,81 +25017,81 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>39</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Strong Interference Now . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>2</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B474" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C474" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D474" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="F474" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
